--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -723,6 +723,7 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -723,7 +723,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection password="D382" sheet="1" objects="1" scenarios="1" formatColumns="0" formatRows="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-16 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2471367798219883</v>
+        <v>0.2484502169681998</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001210653753026758</v>
+        <v>-0.001177489177489166</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4917910988954678</v>
+        <v>0.4921149296372752</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.005836575875486139</v>
+        <v>0.003913894324852896</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1000691173438149</v>
+        <v>0.09944892147485231</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01264822134387356</v>
+        <v>-0.001401120896717289</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1007478031893532</v>
+        <v>0.1002897432596559</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01100786275911358</v>
+        <v>0.0095403295750216</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.06025520074937574</v>
+        <v>0.059696188660017</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01570796460176982</v>
+        <v>0.006068779501011479</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.006490774030679658</v>
+        <v>0.002813278636343508</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2484502169681998</v>
+        <v>0.247461491399503</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001177489177489166</v>
+        <v>-0.02534586179397391</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4921149296372752</v>
+        <v>0.4926550395696496</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003913894324852896</v>
+        <v>-0.00362016151489819</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09944892147485231</v>
+        <v>0.09903097977308611</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001401120896717289</v>
+        <v>-0.0242533573862499</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1002897432596559</v>
+        <v>0.1009625048055063</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0095403295750216</v>
+        <v>-0.006300114547537095</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.059696188660017</v>
+        <v>0.05988998445225496</v>
       </c>
       <c r="E6" s="1">
-        <v>0.006068779501011479</v>
+        <v>-0.02479892761394109</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002813278636343508</v>
+        <v>-0.01257873205397264</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.247461491399503</v>
+        <v>0.2442618712688534</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02534586179397391</v>
+        <v>0.001778726431874933</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4926550395696496</v>
+        <v>0.4971247477546838</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.00362016151489819</v>
+        <v>-0.005030743432084983</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09903097977308611</v>
+        <v>0.09786010203055576</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0242533573862499</v>
+        <v>0.007806080525883496</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1009625048055063</v>
+        <v>0.1016044850531913</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.006300114547537095</v>
+        <v>-0.002305475504323029</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05988998445225496</v>
+        <v>0.05914879389271555</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.02479892761394109</v>
+        <v>0.002978235967926679</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01257873205397264</v>
+        <v>-0.001360615762235895</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2442618712688534</v>
+        <v>0.2450297376388265</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001778726431874933</v>
+        <v>0.01438210227272729</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4971247477546838</v>
+        <v>0.4952977506214857</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.005030743432084983</v>
+        <v>0.00393258426966292</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09786010203055576</v>
+        <v>0.0987583780731366</v>
       </c>
       <c r="E4" s="1">
-        <v>0.007806080525883496</v>
+        <v>0.01263758662861791</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1016044850531913</v>
+        <v>0.1015083522658633</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002305475504323029</v>
+        <v>-0.001733102253032803</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05914879389271555</v>
+        <v>0.05940578140068804</v>
       </c>
       <c r="E6" s="1">
-        <v>0.002978235967926679</v>
+        <v>-0.006624029237094486</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001360615762235895</v>
+        <v>0.00615048046081168</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2450297376388265</v>
+        <v>0.2470344001342337</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01438210227272729</v>
+        <v>-0.003150708909504751</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4952977506214857</v>
+        <v>0.4942059467453053</v>
       </c>
       <c r="E3" s="1">
-        <v>0.00393258426966292</v>
+        <v>-0.01147174034695031</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0987583780731366</v>
+        <v>0.09939511790078881</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01263758662861791</v>
+        <v>-0.01086956521739124</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1015083522658633</v>
+        <v>0.1007129946063734</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001733102253032803</v>
+        <v>-0.02141203703703709</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05940578140068804</v>
+        <v>0.05865154061329884</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.006624029237094486</v>
+        <v>-0.03265118418027146</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00615048046081168</v>
+        <v>-0.01159963012639487</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2470344001342337</v>
+        <v>0.2491460688954086</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.003150708909504751</v>
+        <v>-0.0103213345039509</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4942059467453053</v>
+        <v>0.4942698923805518</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01147174034695031</v>
+        <v>0.002547410133031391</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09939511790078881</v>
+        <v>0.09946853439264516</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01086956521739124</v>
+        <v>-0.01872201872201862</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1007129946063734</v>
+        <v>0.0997131600106079</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.02141203703703709</v>
+        <v>-0.004435245416912981</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05865154061329884</v>
+        <v>0.05740234432078643</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.03265118418027146</v>
+        <v>-0.01711433325410017</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01159963012639487</v>
+        <v>-0.004599318734477942</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2491460688954086</v>
+        <v>0.2477138639934497</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0103213345039509</v>
+        <v>-0.001103576510498083</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4942698923805518</v>
+        <v>0.4978186270506204</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002547410133031391</v>
+        <v>0.01101072840203265</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09946853439264516</v>
+        <v>0.09805727931128262</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01872201872201862</v>
+        <v>0.005391953546246331</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.0997131600106079</v>
+        <v>0.09972959587334713</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.004435245416912981</v>
+        <v>0.01425601425601419</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05740234432078643</v>
+        <v>0.05668063377130032</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01711433325410017</v>
+        <v>0.02394195888754536</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004599318734477942</v>
+        <v>0.008515486733206679</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2477138639934497</v>
+        <v>0.2453512078365138</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001103576510498083</v>
+        <v>0.01918294849023083</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4978186270506204</v>
+        <v>0.4990503163980574</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01101072840203265</v>
+        <v>0.01843060597598423</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09805727931128262</v>
+        <v>0.09775358029011641</v>
       </c>
       <c r="E4" s="1">
-        <v>0.005391953546246331</v>
+        <v>0.0222772277227723</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09972959587334713</v>
+        <v>0.1002972624064649</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01425601425601419</v>
+        <v>0.01112737920937046</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05668063377130032</v>
+        <v>0.05754763306884758</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02394195888754536</v>
+        <v>0.0186584789796882</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.008515486733206679</v>
+        <v>0.01827183506891017</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2453512078365138</v>
+        <v>0.2455707393709217</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01918294849023083</v>
+        <v>-0.00226559776925761</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4990503163980574</v>
+        <v>0.4991281292852269</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01843060597598423</v>
+        <v>-0.001096791883740011</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09775358029011641</v>
+        <v>0.09813809595567664</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0222772277227723</v>
+        <v>-0.008474576271186529</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1002972624064649</v>
+        <v>0.09959355113859196</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01112737920937046</v>
+        <v>-0.00897770055024627</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05754763306884758</v>
+        <v>0.05756948424958289</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0186584789796882</v>
+        <v>-0.02341757477393924</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01827183506891017</v>
+        <v>-0.004177741760714948</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2455707393709217</v>
+        <v>0.2460422759427153</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.00226559776925761</v>
+        <v>-0.003842794759825408</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4991281292852269</v>
+        <v>0.5006723694704533</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001096791883740011</v>
+        <v>-0.003019489431786981</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09813809595567664</v>
+        <v>0.09771464372411084</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.008474576271186529</v>
+        <v>0.002035002035002176</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09959355113859196</v>
+        <v>0.09911350067053598</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.00897770055024627</v>
+        <v>0.006428988895382792</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05756948424958289</v>
+        <v>0.05645721019218451</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.02341757477393924</v>
+        <v>0.01590693257359921</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.004177741760714948</v>
+        <v>-0.0007231547672500449</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2460422759427153</v>
+        <v>0.2452741571500534</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.003842794759825408</v>
+        <v>0.01665789935121853</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.5006723694704533</v>
+        <v>0.4995218261319623</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.003019489431786981</v>
+        <v>-0.003303964757709221</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09771464372411084</v>
+        <v>0.09798435107353365</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002035002035002176</v>
+        <v>0.0168562144597888</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09911350067053598</v>
+        <v>0.09982288766282342</v>
       </c>
       <c r="E5" s="1">
-        <v>0.006428988895382792</v>
+        <v>-0.0005807200929152101</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05645721019218451</v>
+        <v>0.05739677798162732</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01590693257359921</v>
+        <v>0.005608787099789625</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.0007231547672500449</v>
+        <v>0.004350952100727223</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-03-31 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2452741571500534</v>
+        <v>0.2495782674982739</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01665789935121853</v>
+        <v>0.01594030863150731</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4995218261319623</v>
+        <v>0.4935959754172668</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.003303964757709221</v>
+        <v>0.009048533040855622</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09798435107353365</v>
+        <v>0.1000073113870598</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0168562144597888</v>
+        <v>0.009203054630898766</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09982288766282342</v>
+        <v>0.09917424302279598</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0005807200929152101</v>
+        <v>0.006039689387402625</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05739677798162732</v>
+        <v>0.05764420267460341</v>
       </c>
       <c r="E6" s="1">
-        <v>0.005608787099789625</v>
+        <v>0.004579803068467836</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.004350952100727223</v>
+        <v>0.01022802757359709</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2495782674982739</v>
+        <v>0.2509894946380719</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01594030863150731</v>
+        <v>0.0006676681689201658</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4935959754172668</v>
+        <v>0.4930196760685087</v>
       </c>
       <c r="E3" s="1">
-        <v>0.009048533040855622</v>
+        <v>-0.001902173913043592</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1000073113870598</v>
+        <v>0.09990584440589723</v>
       </c>
       <c r="E4" s="1">
-        <v>0.009203054630898766</v>
+        <v>0.00640279394644927</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09917424302279598</v>
+        <v>0.098763073209841</v>
       </c>
       <c r="E5" s="1">
-        <v>0.006039689387402625</v>
+        <v>0.002858776443682043</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05764420267460341</v>
+        <v>0.05732191167768132</v>
       </c>
       <c r="E6" s="1">
-        <v>0.004579803068467836</v>
+        <v>0.0002279462046959058</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01022802757359709</v>
+        <v>0.0001648529250564135</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2509894946380719</v>
+        <v>0.2512921186425509</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0006676681689201658</v>
+        <v>0.0115423218467714</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4930196760685087</v>
+        <v>0.4930744432138315</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001902173913043592</v>
+        <v>-0.0008178844056706547</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09990584440589723</v>
+        <v>0.09983538050603893</v>
       </c>
       <c r="E4" s="1">
-        <v>0.00640279394644927</v>
+        <v>0.01811805961426072</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.098763073209841</v>
+        <v>0.09906885764842009</v>
       </c>
       <c r="E5" s="1">
-        <v>0.002858776443682043</v>
+        <v>-0.002573634543894698</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05732191167768132</v>
+        <v>0.05672919998915867</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0002279462046959058</v>
+        <v>0.007395424081349855</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0001648529250564135</v>
+        <v>0.00447060944605826</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2512921186425509</v>
+        <v>0.2530612750269134</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0115423218467714</v>
+        <v>0.006614850339011102</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4930744432138315</v>
+        <v>0.4904784278233771</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.0008178844056706547</v>
+        <v>0.006548431105047658</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09983538050603893</v>
+        <v>0.1011918147985575</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01811805961426072</v>
+        <v>0.00746268656716409</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09906885764842009</v>
+        <v>0.09837409844041672</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.002573634543894698</v>
+        <v>0.005160550458715552</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05672919998915867</v>
+        <v>0.0568943839107352</v>
       </c>
       <c r="E6" s="1">
-        <v>0.007395424081349855</v>
+        <v>0.001376462491397001</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00447060944605826</v>
+        <v>0.006226966935276801</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2530612750269134</v>
+        <v>0.2537561975349273</v>
       </c>
       <c r="E2" s="1">
-        <v>0.006614850339011102</v>
+        <v>0.01094950155254115</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4904784278233771</v>
+        <v>0.4914754494355139</v>
       </c>
       <c r="E3" s="1">
-        <v>0.006548431105047658</v>
+        <v>0.01133297355639473</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1011918147985575</v>
+        <v>0.1003716771038915</v>
       </c>
       <c r="E4" s="1">
-        <v>0.00746268656716409</v>
+        <v>0.01319059453259408</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09837409844041672</v>
+        <v>0.09857351203003993</v>
       </c>
       <c r="E5" s="1">
-        <v>0.005160550458715552</v>
+        <v>0.01607598525659171</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0568943839107352</v>
+        <v>0.05582316389562723</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001376462491397001</v>
+        <v>0.02108433734939763</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.006226966935276801</v>
+        <v>0.01243400499175085</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2537561975349273</v>
+        <v>0.253384121976319</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01094950155254115</v>
+        <v>-0.006951180084060704</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4914754494355139</v>
+        <v>0.4909409652944576</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01133297355639473</v>
+        <v>-0.007203842049092746</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1003716771038915</v>
+        <v>0.1004466846211413</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01319059453259408</v>
+        <v>0.0009433962264149276</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09857351203003993</v>
+        <v>0.09892810579484773</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01607598525659171</v>
+        <v>-0.005218070709043676</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05582316389562723</v>
+        <v>0.0563001223132344</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02108433734939763</v>
+        <v>-0.003176764238711161</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01243400499175085</v>
+        <v>-0.005898284874830795</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-22 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.253384121976319</v>
+        <v>0.2531157521263684</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.006951180084060704</v>
+        <v>0.013348526778447</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4909409652944576</v>
+        <v>0.4902962108496888</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.007203842049092746</v>
+        <v>0.007524858908895427</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1004466846211413</v>
+        <v>0.1011379862992283</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0009433962264149276</v>
+        <v>0.01564561734213044</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09892810579484773</v>
+        <v>0.09899579735792655</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.005218070709043676</v>
+        <v>0.01262272089761596</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0563001223132344</v>
+        <v>0.05645425336678785</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.003176764238711161</v>
+        <v>0.01593444115638531</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.005898284874830795</v>
+        <v>0.01079966173629354</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-23 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2531157521263684</v>
+        <v>0.2537540169741277</v>
       </c>
       <c r="E2" s="1">
-        <v>0.013348526778447</v>
+        <v>0.003052208835341297</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4902962108496888</v>
+        <v>0.4887077423545618</v>
       </c>
       <c r="E3" s="1">
-        <v>0.007524858908895427</v>
+        <v>-0.002400640170712287</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1011379862992283</v>
+        <v>0.1016228600187426</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01564561734213044</v>
+        <v>0.003526354862657621</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09899579735792655</v>
+        <v>0.09917434430658277</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01262272089761596</v>
+        <v>0.005263157894736636</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05645425336678785</v>
+        <v>0.05674103634598521</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01593444115638531</v>
+        <v>0.009634774815146629</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01079966173629354</v>
+        <v>0.001028314422325982</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2537540169741277</v>
+        <v>0.2542670607410571</v>
       </c>
       <c r="E2" s="1">
-        <v>0.003052208835341297</v>
+        <v>-0.004163997437540035</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4887077423545618</v>
+        <v>0.4870337071313253</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.002400640170712287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1016228600187426</v>
+        <v>0.101876457255036</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003526354862657621</v>
+        <v>-0.003883854262992426</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09917434430658277</v>
+        <v>0.09959390069531461</v>
       </c>
       <c r="E5" s="1">
-        <v>0.005263157894736636</v>
+        <v>0.00330669605952072</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05674103634598521</v>
+        <v>0.05722887417726688</v>
       </c>
       <c r="E6" s="1">
-        <v>0.009634774815146629</v>
+        <v>0.002663115845539243</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001028314422325982</v>
+        <v>-0.00097270682155981</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2542670607410571</v>
+        <v>0.2534548305943569</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.004163997437540035</v>
+        <v>-0.002251527822450861</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4870337071313253</v>
+        <v>0.4875079094003634</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>-0.002406417112299386</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.101876457255036</v>
+        <v>0.101579591103425</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003883854262992426</v>
+        <v>-0.006498329001114023</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09959390069531461</v>
+        <v>0.1000205180945426</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00330669605952072</v>
+        <v>-0.003021148036253751</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05722887417726688</v>
+        <v>0.05743715080731197</v>
       </c>
       <c r="E6" s="1">
-        <v>0.002663115845539243</v>
+        <v>0.001992031872509958</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.00097270682155981</v>
+        <v>-0.002591665737921023</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2534548305943569</v>
+        <v>0.2535412641991132</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002251527822450861</v>
+        <v>-0.0003223726627981094</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4875079094003634</v>
+        <v>0.4875984542324988</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.002406417112299386</v>
+        <v>0.006968641114982521</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.101579591103425</v>
+        <v>0.1011817227046739</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.006498329001114023</v>
+        <v>-0.003363857222948963</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1000205180945426</v>
+        <v>0.09997744943297637</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.003021148036253751</v>
+        <v>0.009366391184573164</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05743715080731197</v>
+        <v>0.05770110943073797</v>
       </c>
       <c r="E6" s="1">
-        <v>0.001992031872509958</v>
+        <v>-0.000441793682350311</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.002591665737921023</v>
+        <v>0.003886738909961052</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-29 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2535412641991132</v>
+        <v>0.2524782125340705</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0003223726627981094</v>
+        <v>-0.009835536923573307</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4875984542324988</v>
+        <v>0.4890953668751499</v>
       </c>
       <c r="E3" s="1">
-        <v>0.006968641114982521</v>
+        <v>-0.006121905775885006</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1011817227046739</v>
+        <v>0.1004509352772393</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003363857222948963</v>
+        <v>-0.01218826176636045</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09997744943297637</v>
+        <v>0.1005231700177409</v>
       </c>
       <c r="E5" s="1">
-        <v>0.009366391184573164</v>
+        <v>-0.009825327510917137</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05770110943073797</v>
+        <v>0.05745231529579933</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.000441793682350311</v>
+        <v>-0.01414364640883981</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.003886738909961052</v>
+        <v>-0.008502035127815666</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-04-30 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2524782125340705</v>
+        <v>0.2521386453723293</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.009835536923573307</v>
+        <v>-0.007490636704119646</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4890953668751499</v>
+        <v>0.490269459288686</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.006121905775885006</v>
+        <v>0.009641135511515797</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1004509352772393</v>
+        <v>0.1000774751929986</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01218826176636045</v>
+        <v>-0.008542141230068356</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1005231700177409</v>
+        <v>0.1003890078208202</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.009825327510917137</v>
+        <v>0.007717750826901959</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05745231529579933</v>
+        <v>0.05712541232516588</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01414364640883981</v>
+        <v>0.005155794664873481</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.008502035127815666</v>
+        <v>0.003052503619775271</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-03 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2521386453723293</v>
+        <v>0.249488402130182</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.007490636704119646</v>
+        <v>-0.01394585726004915</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.490269459288686</v>
+        <v>0.4934898340780004</v>
       </c>
       <c r="E3" s="1">
-        <v>0.009641135511515797</v>
+        <v>0.002917771883289122</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.1000774751929986</v>
+        <v>0.09892064364316007</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.008542141230068356</v>
+        <v>-0.0170400153168675</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1003890078208202</v>
+        <v>0.1008559221016501</v>
       </c>
       <c r="E5" s="1">
-        <v>0.007717750826901959</v>
+        <v>0.003555798687089551</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05712541232516588</v>
+        <v>0.05724519804700743</v>
       </c>
       <c r="E6" s="1">
-        <v>0.005155794664873481</v>
+        <v>-0.009143621766280252</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.003052503619775271</v>
+        <v>-0.003889853247900588</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-04 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.249488402130182</v>
+        <v>0.246969748564624</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01394585726004915</v>
+        <v>-0.003161397670549237</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4934898340780004</v>
+        <v>0.496862446843175</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002917771883289122</v>
+        <v>0.002909283258397233</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09892064364316007</v>
+        <v>0.09761474137912279</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0170400153168675</v>
+        <v>-0.001363459291001345</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1008559221016501</v>
+        <v>0.1016097926389595</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003555798687089551</v>
+        <v>0.004360861270100935</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05724519804700743</v>
+        <v>0.0569432705741186</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.009143621766280252</v>
+        <v>-0.002250731487733582</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.003889853247900588</v>
+        <v>0.0008465924817331327</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-05 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.246969748564624</v>
+        <v>0.2459807335371519</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.003161397670549237</v>
+        <v>0.001836087464530234</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.496862446843175</v>
+        <v>0.4978864535132011</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002909283258397233</v>
+        <v>0.008438818565400963</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09761474137912279</v>
+        <v>0.09739919023087437</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001363459291001345</v>
+        <v>-0.01696898771211242</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1016097926389595</v>
+        <v>0.1019665747128018</v>
       </c>
       <c r="E5" s="1">
-        <v>0.004360861270100935</v>
+        <v>0.007598371777476354</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.0569432705741186</v>
+        <v>0.05676704800597086</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.002250731487733582</v>
+        <v>0.004060455673358998</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.0008465924817331327</v>
+        <v>0.004005729952214265</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-06 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2459807335371519</v>
+        <v>0.2454491725761808</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001836087464530234</v>
+        <v>0.01116294568477172</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4978864535132011</v>
+        <v>0.5000848222095972</v>
       </c>
       <c r="E3" s="1">
-        <v>0.008438818565400963</v>
+        <v>0.006537656903765621</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09739919023087437</v>
+        <v>0.09536442045329166</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01696898771211242</v>
+        <v>0.01130952380952399</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1019665747128018</v>
+        <v>0.102331442531942</v>
       </c>
       <c r="E5" s="1">
-        <v>0.007598371777476354</v>
+        <v>0.009964987880419995</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05676704800597086</v>
+        <v>0.05677014222898843</v>
       </c>
       <c r="E6" s="1">
-        <v>0.004060455673358998</v>
+        <v>0.01033475623455393</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.004005729952214265</v>
+        <v>0.008694282121879393</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2454491725761808</v>
+        <v>0.2460498812741683</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01116294568477172</v>
+        <v>-0.01977261492832416</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.5000848222095972</v>
+        <v>0.4990156225939272</v>
       </c>
       <c r="E3" s="1">
-        <v>0.006537656903765621</v>
+        <v>0.001558846453624252</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09536442045329166</v>
+        <v>0.09561167178831745</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01130952380952399</v>
+        <v>-0.01608789484010198</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.102331442531942</v>
+        <v>0.1024603548848817</v>
       </c>
       <c r="E5" s="1">
-        <v>0.009964987880419995</v>
+        <v>-0.0006533333333333946</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05677014222898843</v>
+        <v>0.05686246945870525</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01033475623455393</v>
+        <v>-0.01934623082054698</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.008694282121879393</v>
+        <v>-0.006792366567593078</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2460498812741683</v>
+        <v>0.2428342509663043</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.01977261492832416</v>
+        <v>-0.002857623129937759</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4990156225939272</v>
+        <v>0.5032115083532778</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001558846453624252</v>
+        <v>-0.01245136186770412</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09561167178831745</v>
+        <v>0.09471683271502247</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.01608789484010198</v>
+        <v>-0.0003988035892322772</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1024603548848817</v>
+        <v>0.1030936640768968</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.0006533333333333946</v>
+        <v>-0.01322197168816952</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05686246945870525</v>
+        <v>0.05614374388849858</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01934623082054698</v>
+        <v>-0.006802721088435493</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.006792366567593078</v>
+        <v>-0.008742402509838265</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-11 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2428342509663043</v>
+        <v>0.2442758802627036</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002857623129937759</v>
+        <v>-0.02933243425488885</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.5032115083532778</v>
+        <v>0.5013286566731309</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01245136186770412</v>
+        <v>-0.01707381140005249</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09471683271502247</v>
+        <v>0.09551408185107474</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0003988035892322772</v>
+        <v>-0.03271494115300222</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1030936640768968</v>
+        <v>0.1026277758948043</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01322197168816952</v>
+        <v>-0.02568956192536509</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05614374388849858</v>
+        <v>0.05625360531828662</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.006802721088435493</v>
+        <v>-0.03173515981735153</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.008742402509838265</v>
+        <v>-0.02327121445757063</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-12 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2442758802627036</v>
+        <v>0.2427599939456709</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.02933243425488885</v>
+        <v>0.00816255644320929</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.5013286566731309</v>
+        <v>0.5045096172383118</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01707381140005249</v>
+        <v>0.01496525921966851</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09551408185107474</v>
+        <v>0.09459058200350376</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.03271494115300222</v>
+        <v>0.004743246030109338</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1026277758948043</v>
+        <v>0.1023736729896434</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.02568956192536509</v>
+        <v>0.01859561476547333</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05625360531828662</v>
+        <v>0.05576613382287016</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.03173515981735153</v>
+        <v>0.0174487149257252</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.02327121445757063</v>
+        <v>0.01285707451272278</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2427599939456709</v>
+        <v>0.2416348192227899</v>
       </c>
       <c r="E2" s="1">
-        <v>0.00816255644320929</v>
+        <v>0.0192937123169683</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.5045096172383118</v>
+        <v>0.5055597155062046</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01496525921966851</v>
+        <v>0.009741969457609523</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09459058200350376</v>
+        <v>0.09383283268451297</v>
       </c>
       <c r="E4" s="1">
-        <v>0.004743246030109338</v>
+        <v>0.02688834154351394</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1023736729896434</v>
+        <v>0.1029536910968928</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01859561476547333</v>
+        <v>0.01444141689373257</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05576613382287016</v>
+        <v>0.05601894148959962</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0174487149257252</v>
+        <v>0.02201622247972179</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01285707451272278</v>
+        <v>0.01483031190131512</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2416348192227899</v>
+        <v>0.2426975712315811</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0192937123169683</v>
+        <v>-0.007267196214297722</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.5055597155062046</v>
+        <v>0.5030248474321338</v>
       </c>
       <c r="E3" s="1">
-        <v>0.009741969457609523</v>
+        <v>-0.001303780964798107</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09383283268451297</v>
+        <v>0.09494773737808833</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02688834154351394</v>
+        <v>-0.00899460323805723</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1029536910968928</v>
+        <v>0.1029142380218218</v>
       </c>
       <c r="E5" s="1">
-        <v>0.01444141689373257</v>
+        <v>-0.001611603545527585</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05601894148959962</v>
+        <v>0.05641560593637504</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02201622247972179</v>
+        <v>0.0002267573696144165</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01483031190131512</v>
+        <v>-0.003426646614316908</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-17 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2426975712315811</v>
+        <v>0.241762274239199</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.007267196214297722</v>
+        <v>-0.003091590057882287</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.5030248474321338</v>
+        <v>0.5040963733422339</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.001303780964798107</v>
+        <v>-0.01044386422976507</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09494773737808833</v>
+        <v>0.09441725471823451</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.00899460323805723</v>
+        <v>-0.003025413473174532</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1029142380218218</v>
+        <v>0.1031016740733343</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.001611603545527585</v>
+        <v>-0.01022329835889157</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05641560593637504</v>
+        <v>0.05662242362699826</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0002267573696144165</v>
+        <v>-0.007481296758104716</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.003426646614316908</v>
+        <v>-0.007775443489506539</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-18 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.241762274239199</v>
+        <v>0.2429035270437203</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.003091590057882287</v>
+        <v>0.000881171616710974</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.5040963733422339</v>
+        <v>0.502740691093806</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01044386422976507</v>
+        <v>-0.005540897097625286</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09441725471823451</v>
+        <v>0.09486925400713392</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.003025413473174532</v>
+        <v>0.0004086587092859695</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1031016740733343</v>
+        <v>0.1028473184103282</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01022329835889157</v>
+        <v>-0.009513454743136696</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05662242362699826</v>
+        <v>0.05663920944501157</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.007481296758104716</v>
+        <v>-0.007537688442211032</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.007775443489506539</v>
+        <v>-0.003938187619175748</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-19 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2429035270437203</v>
+        <v>0.2440787948252343</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000881171616710974</v>
+        <v>0.01842688960928163</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.502740691093806</v>
+        <v>0.5019317580930595</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.005540897097625286</v>
+        <v>0.006102414433536874</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09486925400713392</v>
+        <v>0.09528326653460861</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0004086587092859695</v>
+        <v>0.02244278081787332</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1028473184103282</v>
+        <v>0.1022716500471871</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.009513454743136696</v>
+        <v>0.003567508232711347</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05663920944501157</v>
+        <v>0.05643453049991069</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.007537688442211032</v>
+        <v>0.005983889528193176</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.003938187619175748</v>
+        <v>0.01040158302949923</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-20 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2440787948252343</v>
+        <v>0.2460174370354169</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01842688960928163</v>
+        <v>-0.002512983749371811</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.5019317580930595</v>
+        <v>0.4997960832406509</v>
       </c>
       <c r="E3" s="1">
-        <v>0.006102414433536874</v>
+        <v>0.002900843881856519</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09528326653460861</v>
+        <v>0.09641878005471372</v>
       </c>
       <c r="E4" s="1">
-        <v>0.02244278081787332</v>
+        <v>-0.0007911392405063333</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1022716500471871</v>
+        <v>0.1015799131004597</v>
       </c>
       <c r="E5" s="1">
-        <v>0.003567508232711347</v>
+        <v>0.0008203445447088065</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05643453049991069</v>
+        <v>0.05618778656875888</v>
       </c>
       <c r="E6" s="1">
-        <v>0.005983889528193176</v>
+        <v>0.002974147792267345</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01040158302949923</v>
+        <v>0.001005753217429239</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-21 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2460174370354169</v>
+        <v>0.2451526361615041</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.002512983749371811</v>
+        <v>0.01662747732616743</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4997960832406509</v>
+        <v>0.5007422904811412</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002900843881856519</v>
+        <v>0.004207204838285294</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09641878005471372</v>
+        <v>0.09624569995190031</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.0007911392405063333</v>
+        <v>0.009699129057798794</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1015799131004597</v>
+        <v>0.1015610982267165</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0008203445447088065</v>
+        <v>0.005737704918032938</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05618778656875888</v>
+        <v>0.05629827517873801</v>
       </c>
       <c r="E6" s="1">
-        <v>0.002974147792267345</v>
+        <v>0.005246350364963348</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001005753217429239</v>
+        <v>0.007994582840870512</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-24 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2451526361615041</v>
+        <v>0.247252227644238</v>
       </c>
       <c r="E2" s="1">
-        <v>0.01662747732616743</v>
+        <v>0.004295390715347791</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.5007422904811412</v>
+        <v>0.4988608316239047</v>
       </c>
       <c r="E3" s="1">
-        <v>0.004207204838285294</v>
+        <v>-0.005760670332547679</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09624569995190031</v>
+        <v>0.09640845404457238</v>
       </c>
       <c r="E4" s="1">
-        <v>0.009699129057798794</v>
+        <v>0.003332679866692834</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1015610982267165</v>
+        <v>0.1013337051391851</v>
       </c>
       <c r="E5" s="1">
-        <v>0.005737704918032938</v>
+        <v>-0.007334963325183574</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05629827517873801</v>
+        <v>0.05614478154809992</v>
       </c>
       <c r="E6" s="1">
-        <v>0.005246350364963348</v>
+        <v>-0.007034263671431784</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.007994582840870512</v>
+        <v>-0.002628645564045518</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-25 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.247252227644238</v>
+        <v>0.2489687230967645</v>
       </c>
       <c r="E2" s="1">
-        <v>0.004295390715347791</v>
+        <v>0.001809508142786687</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4988608316239047</v>
+        <v>0.4972942692058721</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.005760670332547679</v>
+        <v>0.001843560705820257</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09640845404457238</v>
+        <v>0.09698469093595484</v>
       </c>
       <c r="E4" s="1">
-        <v>0.003332679866692834</v>
+        <v>0.002149277061352262</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1013337051391851</v>
+        <v>0.1008555395951505</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.007334963325183574</v>
+        <v>0.006294471811713276</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05614478154809992</v>
+        <v>0.05589677716625818</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.007034263671431784</v>
+        <v>0.01531078610603287</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.002628645564045518</v>
+        <v>0.003066406027457447</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-26 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2489687230967645</v>
+        <v>0.2486567514670408</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001809508142786687</v>
+        <v>-0.001477832512315258</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4972942692058721</v>
+        <v>0.4966880142591196</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001843560705820257</v>
+        <v>0.002891692954784419</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09698469093595484</v>
+        <v>0.09689601538188221</v>
       </c>
       <c r="E4" s="1">
-        <v>0.002149277061352262</v>
+        <v>0.001949697796841399</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1008555395951505</v>
+        <v>0.1011801126389324</v>
       </c>
       <c r="E5" s="1">
-        <v>0.006294471811713276</v>
+        <v>0.00697851509382641</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05589677716625818</v>
+        <v>0.05657910625302491</v>
       </c>
       <c r="E6" s="1">
-        <v>0.01531078610603287</v>
+        <v>0.008552779653387521</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.003066406027457447</v>
+        <v>0.002447709719560542</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-27 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2486567514670408</v>
+        <v>0.2476830222942763</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001477832512315258</v>
+        <v>0.00148001973359646</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4966880142591196</v>
+        <v>0.4969079969568</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002891692954784419</v>
+        <v>0.002359108781127217</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09689601538188221</v>
+        <v>0.09684787783769284</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001949697796841399</v>
+        <v>0.001945903872348609</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1011801126389324</v>
+        <v>0.1016374206797095</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00697851509382641</v>
+        <v>0.0009020541988731257</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05657910625302491</v>
+        <v>0.05692368223152135</v>
       </c>
       <c r="E6" s="1">
-        <v>0.008552779653387521</v>
+        <v>-0.000223164472216264</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.002447709719560542</v>
+        <v>0.001806271558803418</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-05-28 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2476830222942763</v>
+        <v>0.2499796881609357</v>
       </c>
       <c r="E2" s="1">
-        <v>0.00148001973359646</v>
+        <v>-0.0004887585532746819</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.4969079969568</v>
+        <v>0.5400052123275155</v>
       </c>
       <c r="E3" s="1">
-        <v>0.002359108781127217</v>
+        <v>-0.004445606694560733</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.09684787783769284</v>
+        <v>0.0500129765665825</v>
       </c>
       <c r="E4" s="1">
-        <v>0.001945903872348609</v>
+        <v>-0.002895193977996535</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1016374206797095</v>
+        <v>0.1000047012343144</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0009020541988731257</v>
+        <v>-0.007232788641843069</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05692368223152135</v>
+        <v>0.05999742171065175</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.000223164472216264</v>
+        <v>-0.006524575902566276</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="E7" s="1">
-        <v>0.001806271558803418</v>
+        <v>-0.003782398365459794</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2499796881609357</v>
+        <v>0.2508061572494296</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.0004887585532746819</v>
+        <v>0.0123879380603098</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.5400052123275155</v>
+        <v>0.539645716616954</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.004445606694560733</v>
+        <v>0.001838718150774854</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.0500129765665825</v>
+        <v>0.05005751676760602</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.002895193977996535</v>
+        <v>0.008130081300812941</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.1000047012343144</v>
+        <v>0.09965833589388541</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.007232788641843069</v>
+        <v>-0.004587155963302725</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05999742171065175</v>
+        <v>0.05983227347212504</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.006524575902566276</v>
+        <v>-0.004378283712784703</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.003782398365459794</v>
+        <v>0.003787088198088817</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-10 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2508061572494296</v>
+        <v>0.2525033436932321</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0123879380603098</v>
+        <v>0.005790574231944623</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.539645716616954</v>
+        <v>0.5383848054072217</v>
       </c>
       <c r="E3" s="1">
-        <v>0.001838718150774854</v>
+        <v>-0.003923620193565402</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05005751676760602</v>
+        <v>0.05049205321327568</v>
       </c>
       <c r="E4" s="1">
-        <v>0.008130081300812941</v>
+        <v>0.005147759771210625</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09965833589388541</v>
+        <v>0.09895593190488744</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.004587155963302725</v>
+        <v>-0.00782937365010794</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05983227347212504</v>
+        <v>0.05966386578138319</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.004378283712784703</v>
+        <v>-0.007197382769901783</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.003787088198088817</v>
+        <v>-0.001594543823975836</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-06-14 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2525033436932321</v>
+        <v>0.2640039196952417</v>
       </c>
       <c r="E2" s="1">
-        <v>0.005790574231944623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.5383848054072217</v>
+        <v>0.5292023440231703</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.003923620193565402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05049205321327568</v>
+        <v>0.05282862965531705</v>
       </c>
       <c r="E4" s="1">
-        <v>0.005147759771210625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09895593190488744</v>
+        <v>0.09606621599336043</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.00782937365010794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05966386578138319</v>
+        <v>0.05789889063291045</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.007197382769901783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.001594543823975836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -540,7 +540,7 @@
         <v>0.2640039196952417</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>0.001226429556952402</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -557,7 +557,7 @@
         <v>0.5292023440231703</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>0.003977724741447863</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -574,7 +574,7 @@
         <v>0.05282862965531705</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>-0.001997457781005907</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -591,7 +591,7 @@
         <v>0.09606621599336043</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>0.00347238580340159</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -608,7 +608,7 @@
         <v>0.05789889063291045</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>-0.004703247480403072</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.00238454666306831</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-07 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2640039196952417</v>
+        <v>0.2636988995744722</v>
       </c>
       <c r="E2" s="1">
-        <v>0.001226429556952402</v>
+        <v>-0.008115143163374694</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.5292023440231703</v>
+        <v>0.5300434519356292</v>
       </c>
       <c r="E3" s="1">
-        <v>0.003977724741447863</v>
+        <v>-0.01135763338615947</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05282862965531705</v>
+        <v>0.05259768506354875</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.001997457781005907</v>
+        <v>-0.008733624454148603</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09606621599336043</v>
+        <v>0.09617047197991686</v>
       </c>
       <c r="E5" s="1">
-        <v>0.00347238580340159</v>
+        <v>-0.01546534106600383</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05789889063291045</v>
+        <v>0.057489491446433</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.004703247480403072</v>
+        <v>-0.01035103510351043</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -619,7 +619,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.00238454666306831</v>
+        <v>-0.01070174685008607</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-08 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2636988995744722</v>
+        <v>0.2643883625788284</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.008115143163374694</v>
+        <v>0.007718431614695875</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.5300434519356292</v>
+        <v>0.5296920428812297</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.01135763338615947</v>
+        <v>0.01496126102057183</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05259768506354875</v>
+        <v>0.05270232356019872</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.008733624454148603</v>
+        <v>0.01101321585903081</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09617047197991686</v>
+        <v>0.09570739918805964</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01546534106600383</v>
+        <v>0.02215988779803646</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.057489491446433</v>
+        <v>0.05750987179168351</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01035103510351043</v>
+        <v>0.02069122328331074</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.01070174685008607</v>
+        <v>0.01385676130167846</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-09 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2643883625788284</v>
+        <v>0.2630257801799587</v>
       </c>
       <c r="E2" s="1">
-        <v>0.007718431614695875</v>
+        <v>-0.001372578923287904</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.5296920428812297</v>
+        <v>0.5302104171010633</v>
       </c>
       <c r="E3" s="1">
-        <v>0.01496126102057183</v>
+        <v>-0.006033578174186593</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05270232356019872</v>
+        <v>0.05230293393759328</v>
       </c>
       <c r="E4" s="1">
-        <v>0.01101321585903081</v>
+        <v>-0.009271041628794774</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09570739918805964</v>
+        <v>0.09660007233371154</v>
       </c>
       <c r="E5" s="1">
-        <v>0.02215988779803646</v>
+        <v>-0.01529636711281079</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05750987179168351</v>
+        <v>0.05786079644767331</v>
       </c>
       <c r="E6" s="1">
-        <v>0.02069122328331074</v>
+        <v>-0.01810306530430927</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>0.9999999999999999</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01385676130167846</v>
+        <v>-0.006570080266539158</v>
       </c>
     </row>
     <row r="10" spans="1:5">

--- a/COREESG_holdings.xlsx
+++ b/COREESG_holdings.xlsx
@@ -80,7 +80,7 @@
   </si>
   <si>
     <t>***CONFIDENTIAL***: For one-on-one client use only. Not approved for distribution.
-Model holdings provided as of 2021-07-13 for illustrative purposes only and are subject to change.</t>
+Model holdings provided as of 2021-07-14 for illustrative purposes only and are subject to change.</t>
   </si>
   <si>
     <t>Lido Advisors, LLC is an SEC-registered investment adviser. Please note that SEC registration does not denote any particular competence or ability and no inference to the contrary should be made.</t>
@@ -537,10 +537,10 @@
         <v>16</v>
       </c>
       <c r="D2" s="1">
-        <v>0.2630257801799587</v>
+        <v>0.2644018982318107</v>
       </c>
       <c r="E2" s="1">
-        <v>-0.001372578923287904</v>
+        <v>-0.002596212583995117</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -554,10 +554,10 @@
         <v>17</v>
       </c>
       <c r="D3" s="1">
-        <v>0.5302104171010633</v>
+        <v>0.530496757377827</v>
       </c>
       <c r="E3" s="1">
-        <v>-0.006033578174186593</v>
+        <v>0.0005278437582474371</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -571,10 +571,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="1">
-        <v>0.05230293393759328</v>
+        <v>0.05216073145215178</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.009271041628794774</v>
+        <v>-0.007614678899082739</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -588,10 +588,10 @@
         <v>19</v>
       </c>
       <c r="D5" s="1">
-        <v>0.09660007233371154</v>
+        <v>0.09575153745086774</v>
       </c>
       <c r="E5" s="1">
-        <v>-0.01529636711281079</v>
+        <v>0.0008321775312067903</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -605,10 +605,10 @@
         <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>0.05786079644767331</v>
+        <v>0.05718907548734273</v>
       </c>
       <c r="E6" s="1">
-        <v>-0.01810306530430927</v>
+        <v>-0.009840515778757886</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -616,10 +616,10 @@
         <v>10</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>-0.006570080266539158</v>
+        <v>-0.001286699076079367</v>
       </c>
     </row>
     <row r="10" spans="1:5">
